--- a/salidas/feature_importances.xlsx
+++ b/salidas/feature_importances.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CitizenDesc_Eligible NonCitizen</t>
+          <t>EmpSatisfaction</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-28569353217582.78</v>
+        <v>0.05270863003771314</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CitizenDesc_Non-Citizen</t>
+          <t>EngagementSurvey</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-18298750413517.17</v>
+        <v>0.3425785062403501</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CitizenDesc_US Citizen</t>
+          <t>HispanicLatino_No</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-33654426387477.88</v>
+        <v>0.02558704772065908</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EmpSatisfaction</t>
+          <t>HispanicLatino_Yes</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.313408365722018</v>
+        <v>-0.02558704772065863</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EngagementSurvey</t>
+          <t>PayRate2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.07760956091363623</v>
+        <v>0.1617905031358824</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MaritalDesc_Divorced</t>
+          <t>RaceDesc_Asian</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5662440688468473</v>
+        <v>0.07891113686036502</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MaritalDesc_Married</t>
+          <t>RaceDesc_Black or African American</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1108238140682765</v>
+        <v>0.6677464496962134</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MaritalDesc_Single</t>
+          <t>RaceDesc_White</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1153154744217506</v>
+        <v>-0.137600450996415</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PayRate2</t>
+          <t>antiguedad_dias</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5182260494311011</v>
+        <v>0.3723436683703294</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RaceDesc_Asian</t>
+          <t>avg_perf</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2406318197463647</v>
+        <v>-0.1875383311735579</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RaceDesc_Black or African American</t>
+          <t>dias_lst_mov</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2419394089664377</v>
+        <v>-0.2664130813478211</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RaceDesc_Two or more races</t>
+          <t>edad_dias</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.5176049997931323</v>
+        <v>-0.4206578772892444</v>
       </c>
     </row>
     <row r="14">
@@ -607,115 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RaceDesc_White</t>
+          <t>perf_2022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0118864180755727</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>State_MA</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-0.2485443495738821</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>State_Others</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.1577907050135769</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>antiguedad_dias</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1992943326774124</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>avg_perf</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.09432192319426323</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>dias_lst_mov</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.115753173828125</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>edad_dias</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.10516357421875</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>perf_2022</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6044921875</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>position_Production Technician I</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.15966796875</v>
+        <v>0.5187710706448405</v>
       </c>
     </row>
   </sheetData>

--- a/salidas/feature_importances.xlsx
+++ b/salidas/feature_importances.xlsx
@@ -1,37 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cod\LEA3_HR\salidas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED639BD-C301-4DC9-A0F2-373AA9D82EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-20610" yWindow="-885" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$14</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>peso</t>
+  </si>
+  <si>
+    <t>EmpSatisfaction</t>
+  </si>
+  <si>
+    <t>EngagementSurvey</t>
+  </si>
+  <si>
+    <t>HispanicLatino_No</t>
+  </si>
+  <si>
+    <t>HispanicLatino_Yes</t>
+  </si>
+  <si>
+    <t>PayRate2</t>
+  </si>
+  <si>
+    <t>RaceDesc_Asian</t>
+  </si>
+  <si>
+    <t>RaceDesc_Black or African American</t>
+  </si>
+  <si>
+    <t>RaceDesc_White</t>
+  </si>
+  <si>
+    <t>antiguedad_dias</t>
+  </si>
+  <si>
+    <t>avg_perf</t>
+  </si>
+  <si>
+    <t>dias_lst_mov</t>
+  </si>
+  <si>
+    <t>edad_dias</t>
+  </si>
+  <si>
+    <t>perf_2022</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +106,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,201 +430,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>peso</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>EmpSatisfaction</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05270863003771314</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EngagementSurvey</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3425785062403501</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0.66774644969621344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.51877107064484052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>0.37234366837032939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.34257850624035008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.16179050313588239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7.8911136860365022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HispanicLatino_No</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.02558704772065908</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C8">
+        <v>5.2708630037713138E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2.5587047720659079E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HispanicLatino_Yes</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.02558704772065863</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PayRate2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1617905031358824</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>RaceDesc_Asian</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07891113686036502</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RaceDesc_Black or African American</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6677464496962134</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C10">
+        <v>-2.5587047720658632E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RaceDesc_White</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-0.137600450996415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>antiguedad_dias</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3723436683703294</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>avg_perf</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>-0.1875383311735579</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>-0.13760045099641499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>-0.18753833117355789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dias_lst_mov</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>-0.2664130813478211</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>edad_dias</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>-0.4206578772892444</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>perf_2022</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5187710706448405</v>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>-0.42065787728924442</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+      <sortCondition descending="1" ref="C1:C14"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>